--- a/slides/lecture05/torow_tocol.xlsx
+++ b/slides/lecture05/torow_tocol.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/slides/lecture05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8956" documentId="11_F25DC773A252ABDACC104863C91E5CB45BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39412457-FD25-4F97-8662-F9D41B784144}"/>
+  <xr:revisionPtr revIDLastSave="9119" documentId="11_F25DC773A252ABDACC104863C91E5CB45BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5A51CE5-B8CF-43CE-B083-39C9990C93D0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="951" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="951" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOROW and TOCOL" sheetId="23" r:id="rId1"/>
-    <sheet name="e00eb4de3c8a421cba9b8f4cb8546ec" sheetId="4" state="veryHidden" r:id="rId2"/>
+    <sheet name="Exercises" sheetId="24" r:id="rId2"/>
+    <sheet name="Exercises (solutions)" sheetId="25" r:id="rId3"/>
+    <sheet name="e00eb4de3c8a421cba9b8f4cb8546ec" sheetId="4" state="veryHidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="ARR" comment="An array constant used for examples.">{1,2,4;3,4,4}</definedName>
@@ -80,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>=SUM(ARR)</t>
   </si>
@@ -594,12 +596,33 @@
       <t>TOROW</t>
     </r>
   </si>
+  <si>
+    <t>Exercises</t>
+  </si>
+  <si>
+    <t>Carry out the following operations.</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Task 3: Multiply the arrays below. This is called element-wise multiplication.</t>
+  </si>
+  <si>
+    <t>Task 1: Transform the array below to a column</t>
+  </si>
+  <si>
+    <t>Task 4: How many elements of the solution array above are greater than 12?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task 2: Swap the columns and rows of the array below. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,6 +720,22 @@
       <family val="3"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -733,7 +772,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -780,8 +819,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -790,8 +838,11 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -806,19 +857,28 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="8"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Calculation" xfId="6" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="10" builtinId="53"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="8" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="9" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="4" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="7" builtinId="11"/>
@@ -1163,7 +1223,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="879" row="4">
+  <wetp:taskpane dockstate="right" visibility="0" width="1037" row="4">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1187,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709DC266-E0BE-454E-8E73-41817F270D65}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,18 +1257,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1240,11 +1300,11 @@
       <c r="J4" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="E6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1442,11 +1502,11 @@
       <c r="J31" s="3"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
       <c r="E33" s="6" t="str">
         <f ca="1">_xlfn.FORMULATEXT(E34)</f>
         <v>=TRANSPOSE(ARR)</v>
@@ -1808,6 +1868,599 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC3B26B-0C60-43A8-BC87-7F6D213CA777}">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="16"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="E20:G20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1330DE-B9E5-4CBC-AD91-1AF7CDB91B04}">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="16" cm="1">
+        <f t="array" ref="E8:E13">_xlfn.TOCOL(A7:C8)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" cm="1">
+        <f t="array" ref="A16:F16">_xlfn.TOROW(A7:C8)</f>
+        <v>3</v>
+      </c>
+      <c r="B16" s="16">
+        <v>4</v>
+      </c>
+      <c r="C16" s="16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="16">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="E21" s="16" cm="1">
+        <f t="array" ref="E21:F23">TRANSPOSE(A20:C21)</f>
+        <v>8</v>
+      </c>
+      <c r="F21" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E22" s="16">
+        <v>9</v>
+      </c>
+      <c r="F22" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E23" s="16">
+        <v>4</v>
+      </c>
+      <c r="F23" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" cm="1">
+        <f t="array" ref="A31:C32">A27:C28*E27:G28</f>
+        <v>24</v>
+      </c>
+      <c r="B31" s="16">
+        <v>36</v>
+      </c>
+      <c r="C31" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <v>1</v>
+      </c>
+      <c r="B32" s="16">
+        <v>18</v>
+      </c>
+      <c r="C32" s="16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" cm="1">
+        <f t="array" ref="A36">SUM(--(A27:C28*E27:G28&gt;12))</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="A30:C30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EBA9B6-0C97-480B-BC7B-D98DF87E7B42}">
   <dimension ref="A1:E3"/>
   <sheetViews>

--- a/slides/lecture05/torow_tocol.xlsx
+++ b/slides/lecture05/torow_tocol.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="9119" documentId="11_F25DC773A252ABDACC104863C91E5CB45BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5A51CE5-B8CF-43CE-B083-39C9990C93D0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="951" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52695" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="951" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOROW and TOCOL" sheetId="23" r:id="rId1"/>
@@ -1247,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709DC266-E0BE-454E-8E73-41817F270D65}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,13 +1578,13 @@
       </c>
       <c r="E40" s="11" t="str">
         <f ca="1">_xlfn.FORMULATEXT(E41)</f>
-        <v>=FILTER(ARR;ARR=4)</v>
+        <v>=FILTER(ARR,ARR=4)</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="I40" s="11" t="str">
         <f ca="1">_xlfn.FORMULATEXT(I41)</f>
-        <v>=COUNTIFS(ARR;4)</v>
+        <v>=COUNTIFS(ARR,4)</v>
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
@@ -1699,7 +1699,7 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="str">
         <f ca="1">_xlfn.FORMULATEXT(A52)</f>
-        <v>=FILTER(TOROW(ARR);TOROW(ARR)=4)</v>
+        <v>=FILTER(TOROW(ARR),TOROW(ARR)=4)</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -1735,7 +1735,7 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="str">
         <f ca="1">_xlfn.FORMULATEXT(A57)</f>
-        <v>=FILTER(TOCOL(ARR);TOCOL(ARR)=4)</v>
+        <v>=FILTER(TOCOL(ARR),TOCOL(ARR)=4)</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1871,7 +1871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC3B26B-0C60-43A8-BC87-7F6D213CA777}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
